--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.80</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合A</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.87</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007579</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合C</t>
+          <t>宝盈先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>77.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>69.57</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.18</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>007579</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>宝盈先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -1150,12 +1150,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.92</v>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.43</v>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.92</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.43</v>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000462</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银主题轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2089</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005815</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银汇理睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>000566</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>华泰柏瑞创新升级混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>20.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1290</t>
+          <t>0.9325</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>014292</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合A</t>
+          <t>嘉实产业领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.87</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1455</t>
+          <t>0.5371</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>007968</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>华泰柏瑞研究精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.57</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1248</t>
+          <t>0.4564</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,416 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007579</t>
+          <t>009636</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合C</t>
+          <t>华泰柏瑞景气优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +1197,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +1227,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>000566</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>华泰柏瑞创新升级混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.56</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>87.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8349</t>
+          <t>0.7813</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +1265,416 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>009636</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>华泰柏瑞景气优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.4137</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1917,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,36 +1947,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000566</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞创新升级混合A</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>35.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7813</t>
+          <t>1.8349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1225,416 +1985,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009636</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气优选混合</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4137</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007968</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3745</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013431</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气汇选三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>53.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2649</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000967</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞创新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2454</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008373</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013432</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气汇选三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>53.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010291</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010028</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞创新升级混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008374</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +2049,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1699,36 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000566</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞创新升级混合A</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>69.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9325</t>
+          <t>2.1290</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1737,36 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014292</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实产业领先混合A</t>
+          <t>宝盈先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>17.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>77.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5371</t>
+          <t>1.1455</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1775,36 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007968</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞研究精选混合A</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>69.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4564</t>
+          <t>0.1248</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1813,416 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009636</t>
+          <t>007579</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气优选混合</t>
+          <t>宝盈先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>77.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4478</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000967</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞创新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2849</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013431</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气汇选三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2509</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008373</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013432</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气汇选三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011454</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气优选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010291</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010028</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞创新升级混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>014293</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实产业领先混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008374</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2236,128 +2236,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.19</v>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.25</v>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.43</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -583,6 +600,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1170,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1682,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1890,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2022,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603826-坤彩科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.08</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3.43</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2533,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2873,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
